--- a/2semestre/IHC/P/assignment2/observer_table.xlsx
+++ b/2semestre/IHC/P/assignment2/observer_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/j_gaspar_ua_pt/Documents/Desktop/UA/leci_3ano/2semestre/IHC/P/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{94882C0A-A377-41F0-B621-1D51C9D371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8785040C-5DEF-41B2-A38C-A46799CFE0DC}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{94882C0A-A377-41F0-B621-1D51C9D371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE6D9C6-6163-4DE8-AA36-94B050B2FEC6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22139247-E029-4EFA-9185-3FDBFA46F38F}"/>
   </bookViews>
   <sheets>
     <sheet name="User 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,24 +455,24 @@
   <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="51" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,27 +498,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="24.6" customHeight="1">
       <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="24.6" customHeight="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="24.6" customHeight="1">
       <c r="B6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="24.6" customHeight="1">
       <c r="B7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="47.25" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="39" customHeight="1">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -570,17 +570,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>4</v>
       </c>

--- a/2semestre/IHC/P/assignment2/observer_table.xlsx
+++ b/2semestre/IHC/P/assignment2/observer_table.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/j_gaspar_ua_pt/Documents/Desktop/UA/leci_3ano/2semestre/IHC/P/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{94882C0A-A377-41F0-B621-1D51C9D371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE6D9C6-6163-4DE8-AA36-94B050B2FEC6}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{94882C0A-A377-41F0-B621-1D51C9D371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08DE3248-76ED-4F2A-8CA2-8906891D2239}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22139247-E029-4EFA-9185-3FDBFA46F38F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{22139247-E029-4EFA-9185-3FDBFA46F38F}"/>
   </bookViews>
   <sheets>
-    <sheet name="User 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example" sheetId="1" r:id="rId1"/>
+    <sheet name="User1" sheetId="2" r:id="rId2"/>
+    <sheet name="User2" sheetId="4" r:id="rId3"/>
+    <sheet name="User3" sheetId="5" r:id="rId4"/>
+    <sheet name="User4" sheetId="6" r:id="rId5"/>
+    <sheet name="User5 (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="User5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,57 +42,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="30">
   <si>
-    <t>TAREFAS</t>
+    <t>Tasks</t>
   </si>
   <si>
-    <t>Nº CLIQUES</t>
+    <t>Did the user complete the task?</t>
   </si>
   <si>
-    <t>COMPLETOU A TAREFA?</t>
+    <t xml:space="preserve">Correctly? </t>
   </si>
   <si>
-    <t>TEMPO QUE DEMOROU</t>
+    <t>Correct Answer</t>
   </si>
   <si>
-    <t>COMETEU ERROS?</t>
+    <t>Time (mm:ss)</t>
   </si>
   <si>
-    <t>SENTIU-SE PERDIDO?</t>
+    <t>Max Time Observed (mm:ss)</t>
   </si>
   <si>
-    <t>SOLICITOU AJUDA?</t>
+    <t>Number of errors?</t>
   </si>
   <si>
-    <t>GRAU DE DIFICULDADE OBSERVADO</t>
+    <t>Was lost?</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Asked for help?</t>
   </si>
   <si>
-    <t>sim ou não</t>
+    <t>If "yes", which?</t>
   </si>
   <si>
-    <t>23 segundos</t>
+    <t>Observed Easiness/difficulty ( 1 - very difficult; 5 - very easy)</t>
   </si>
   <si>
-    <t>sim ou não, quais</t>
+    <t>n/a</t>
   </si>
   <si>
-    <t>sim ou não, qual</t>
+    <t>Deep Rock Galactic</t>
   </si>
   <si>
-    <t>1 a 5</t>
+    <t>Ghost Ship Games</t>
+  </si>
+  <si>
+    <t>29.99€</t>
+  </si>
+  <si>
+    <t>C39N-Q8YB-Q37B</t>
+  </si>
+  <si>
+    <t>23.99€</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>User Task Difficulty ( 1 - very difficult; 5 - very easy)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>slightly</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>Se o utilizador não soubesse da existencia de um link direto para as livestreams na página game, ele iria pesquisar na página livestream.</t>
+  </si>
+  <si>
+    <t>numero 9 dígitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confusão com Buy Now e página do jogo. Missions pode não ser o nome mais apropriado.</t>
+  </si>
+  <si>
+    <t>Aonde fica o código depois?</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>não deve eliminar o email se errar password. Missions deveria ser quizz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -101,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -109,13 +196,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,140 +850,2785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA4EBA-4994-4CB8-B312-589CFAC1A021}">
-  <dimension ref="B3:I15"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="51" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:12" ht="15"/>
+    <row r="3" spans="2:12" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="24.6" customHeight="1">
-      <c r="B4" s="1">
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="24.6" customHeight="1">
-      <c r="B5" s="1">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="23">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="24.6" customHeight="1">
-      <c r="B6" s="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="24.6" customHeight="1">
-      <c r="B7" s="1">
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="24">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:12" ht="39" customHeight="1"/>
+    <row r="13" spans="2:12" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="2:12" ht="15"/>
+    <row r="15" spans="2:12" ht="15"/>
+    <row r="17" spans="2:9" ht="15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" ht="15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" ht="15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" ht="15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" ht="15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{223F0AB9-72BF-43CF-9CD5-2B6340F49AEF}">
+      <formula1>"yes, no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{DF371BCA-2621-4841-AD3E-F9F610A8F2CC}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I11" xr:uid="{57C39009-8156-4A07-BB7A-6869A4783B04}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A812681-1E0E-4BD5-8905-EE2E45432829}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="39" customHeight="1">
-      <c r="B12" s="1">
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G11" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="39" customHeight="1"/>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I11" xr:uid="{08C54E57-CCD6-49FD-A819-01A368AFB26F}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{1A72F620-C8EE-43DA-8738-36DA5083A589}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{3A93A284-8F7F-428A-AE28-214A5221852D}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0456FD-635F-4D73-BD36-C1055C57A11C}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="50" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="L3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="F4" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G4" s="23">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G5" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G6" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="39" customHeight="1"/>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:I11" xr:uid="{72D6754A-B59C-4131-ADC5-402C6C3A26C5}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{9C96F31F-E549-455E-8928-CFC673AE8B1F}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{3B18D7A8-2B55-4BEC-9E9B-0EE7BBEAD6A9}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD7680-2DB7-4380-AF1E-7C3DFC9CF820}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="50" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="F5" s="24">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="1">
+      <c r="F6" s="24">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G11" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="39" customHeight="1"/>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{412251E3-F308-4D1D-9058-D9B225B15D1F}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{05CFE457-7237-4A26-B4C6-F2279146BE0C}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{B4F286DF-3631-4B28-9932-65FBB252DEC2}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21BAE46-6DF8-4E4C-96EE-3199CBF9CCFF}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="50" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="1">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="1">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="30.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G11" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="39" customHeight="1"/>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{50FADB92-6A95-447B-9809-C2DA0AE69168}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{8886C126-3026-4AD2-8085-E4FB9619AA25}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{6660C37D-6E06-463E-AD34-56E3EAC2DACA}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75380829-5077-4623-8F1F-58AEA8421A4A}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="50" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" ht="39" customHeight="1"/>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{1A7A0A83-7185-482D-89DB-88248265CDD4}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{8B0BF82F-E481-4CA8-9112-8974E2816501}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{567CDB61-08E6-4ABD-963E-2FC49C22EB50}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF3303-B800-4235-8EB7-8C8DCB3F7E06}">
+  <dimension ref="B3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="50" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="51" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="23">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="11">
+        <v>4</v>
+      </c>
+      <c r="M4" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="24">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="24.6" customHeight="1">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G11" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="39" customHeight="1"/>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{20B295B5-97D1-420A-B9F5-858221244618}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{863ABEC9-C7E2-4E81-8C7F-BD9C165D36B8}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{3F9779FB-CB17-465E-B72C-AD99000E5BBE}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2semestre/IHC/P/assignment2/observer_table.xlsx
+++ b/2semestre/IHC/P/assignment2/observer_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27718"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/j_gaspar_ua_pt/Documents/Desktop/UA/leci_3ano/2semestre/IHC/P/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{94882C0A-A377-41F0-B621-1D51C9D371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08DE3248-76ED-4F2A-8CA2-8906891D2239}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="8_{94882C0A-A377-41F0-B621-1D51C9D371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3904E64E-68B6-4262-BF9B-ACF756B3844A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{22139247-E029-4EFA-9185-3FDBFA46F38F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{22139247-E029-4EFA-9185-3FDBFA46F38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="User2" sheetId="4" r:id="rId3"/>
     <sheet name="User3" sheetId="5" r:id="rId4"/>
     <sheet name="User4" sheetId="6" r:id="rId5"/>
-    <sheet name="User5 (2)" sheetId="8" r:id="rId6"/>
-    <sheet name="User5" sheetId="7" r:id="rId7"/>
+    <sheet name="User5" sheetId="7" r:id="rId6"/>
+    <sheet name="User6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="33">
   <si>
     <t>Tasks</t>
   </si>
@@ -133,12 +133,21 @@
   <si>
     <t>não deve eliminar o email se errar password. Missions deveria ser quizz</t>
   </si>
+  <si>
+    <t>error email @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numbers </t>
+  </si>
+  <si>
+    <t>ADD KEY TO CART, KEY PRICE mais destacado! Bloco a explicar site; Livestreams em cima ao lado de cart por causa do scroll.  Aviso para guardar o codigo promo. Aviso a dizer descounto aplicado e melhorar a interface da store. Payment Method deve mudar depois do pagamento concluido.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +188,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,9 +519,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,6 +528,10 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,16 +1082,16 @@
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="2:12" ht="15"/>
     <row r="15" spans="2:12" ht="15"/>
@@ -1228,7 +1244,7 @@
       <c r="F4" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H4" s="10">
@@ -1264,7 +1280,7 @@
       <c r="F5" s="24">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H5" s="3">
@@ -1300,7 +1316,7 @@
       <c r="F6" s="24">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H6" s="3">
@@ -1336,7 +1352,7 @@
       <c r="F7" s="24">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H7" s="3">
@@ -1372,7 +1388,7 @@
       <c r="F8" s="24">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H8" s="3">
@@ -1408,7 +1424,7 @@
       <c r="F9" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="3">
@@ -1446,7 +1462,7 @@
       <c r="F10" s="24">
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H10" s="3">
@@ -1482,7 +1498,7 @@
       <c r="F11" s="25">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H11" s="5">
@@ -1507,18 +1523,18 @@
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2"/>
@@ -1946,18 +1962,18 @@
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2"/>
@@ -2106,7 +2122,7 @@
       <c r="F4" s="23">
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H4" s="10">
@@ -2142,7 +2158,7 @@
       <c r="F5" s="24">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H5" s="3">
@@ -2178,7 +2194,7 @@
       <c r="F6" s="24">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H6" s="3">
@@ -2214,7 +2230,7 @@
       <c r="F7" s="24">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H7" s="3">
@@ -2250,7 +2266,7 @@
       <c r="F8" s="24">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H8" s="3">
@@ -2286,7 +2302,7 @@
       <c r="F9" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="3">
@@ -2322,7 +2338,7 @@
       <c r="F10" s="24">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H10" s="3">
@@ -2358,7 +2374,7 @@
       <c r="F11" s="25">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H11" s="5">
@@ -2383,18 +2399,18 @@
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2"/>
@@ -2543,7 +2559,7 @@
       <c r="F4" s="23">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H4" s="10">
@@ -2579,7 +2595,7 @@
       <c r="F5" s="24">
         <v>9.0277777777777769E-3</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H5" s="3">
@@ -2615,7 +2631,7 @@
       <c r="F6" s="24">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H6" s="3">
@@ -2651,7 +2667,7 @@
       <c r="F7" s="24">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H7" s="3">
@@ -2687,7 +2703,7 @@
       <c r="F8" s="24">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H8" s="3">
@@ -2723,7 +2739,7 @@
       <c r="F9" s="24">
         <v>3.125E-2</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="3">
@@ -2759,7 +2775,7 @@
       <c r="F10" s="24">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H10" s="3">
@@ -2797,7 +2813,7 @@
       <c r="F11" s="25">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H11" s="5">
@@ -2822,18 +2838,18 @@
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2"/>
@@ -2903,11 +2919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75380829-5077-4623-8F1F-58AEA8421A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF3303-B800-4235-8EB7-8C8DCB3F7E06}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2970,176 +2986,295 @@
       <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="28">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="F4" s="23">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G4" s="27">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="11">
+        <v>4</v>
+      </c>
+      <c r="M4" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="2:13" ht="24.6" customHeight="1">
       <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G5" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="2:13" ht="24.6" customHeight="1">
       <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="F6" s="24">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G6" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="24.6" customHeight="1">
       <c r="B7" s="18">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G7" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G8" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="18">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="29">
+      <c r="F9" s="24">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G9" s="28">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="24">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="G10" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:13" ht="18.75" customHeight="1">
       <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="25">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G11" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="39" customHeight="1"/>
     <row r="13" spans="2:13" ht="36" customHeight="1">
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2"/>
@@ -3196,24 +3331,24 @@
     <mergeCell ref="C13:L13"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{1A7A0A83-7185-482D-89DB-88248265CDD4}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{20B295B5-97D1-420A-B9F5-858221244618}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{863ABEC9-C7E2-4E81-8C7F-BD9C165D36B8}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{3F9779FB-CB17-465E-B72C-AD99000E5BBE}">
       <formula1>"no,slightly,a lot"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{8B0BF82F-E481-4CA8-9112-8974E2816501}">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{567CDB61-08E6-4ABD-963E-2FC49C22EB50}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF3303-B800-4235-8EB7-8C8DCB3F7E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75380829-5077-4623-8F1F-58AEA8421A4A}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3286,13 +3421,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="23">
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="G4" s="28">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="G4" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H4" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>20</v>
@@ -3300,8 +3435,8 @@
       <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>28</v>
+      <c r="K4" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="L4" s="11">
         <v>4</v>
@@ -3324,9 +3459,9 @@
         <v>12</v>
       </c>
       <c r="F5" s="24">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G5" s="29">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="G5" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H5" s="3">
@@ -3335,8 +3470,12 @@
       <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="L5" s="4">
         <v>5</v>
       </c>
@@ -3358,9 +3497,9 @@
         <v>13</v>
       </c>
       <c r="F6" s="24">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="G6" s="29">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G6" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H6" s="3">
@@ -3369,7 +3508,9 @@
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="4">
         <v>5</v>
@@ -3394,22 +3535,24 @@
       <c r="F7" s="24">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75">
@@ -3426,9 +3569,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="24">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="G8" s="29">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G8" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H8" s="3">
@@ -3437,13 +3580,15 @@
       <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75">
@@ -3460,9 +3605,9 @@
         <v>15</v>
       </c>
       <c r="F9" s="24">
-        <v>9.375E-2</v>
-      </c>
-      <c r="G9" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G9" s="28">
         <v>0.16666666666666666</v>
       </c>
       <c r="H9" s="3">
@@ -3471,13 +3616,15 @@
       <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
@@ -3494,9 +3641,9 @@
         <v>16</v>
       </c>
       <c r="F10" s="24">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="G10" s="29">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="G10" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H10" s="3">
@@ -3505,22 +3652,22 @@
       <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="18.75" customHeight="1">
       <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
@@ -3528,24 +3675,28 @@
         <v>11</v>
       </c>
       <c r="F11" s="25">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="G11" s="30">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="G11" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L11" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="39" customHeight="1"/>
@@ -3553,18 +3704,18 @@
       <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="2"/>
@@ -3621,13 +3772,13 @@
     <mergeCell ref="C13:L13"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{20B295B5-97D1-420A-B9F5-858221244618}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{863ABEC9-C7E2-4E81-8C7F-BD9C165D36B8}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{1A7A0A83-7185-482D-89DB-88248265CDD4}">
+      <formula1>"no,slightly,a lot"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D11" xr:uid="{8B0BF82F-E481-4CA8-9112-8974E2816501}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:I11 I4:I5" xr:uid="{3F9779FB-CB17-465E-B72C-AD99000E5BBE}">
-      <formula1>"no,slightly,a lot"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{567CDB61-08E6-4ABD-963E-2FC49C22EB50}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
